--- a/data/trans_bre/P19C04-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-7.10575269947337</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-7.311763248572031</v>
+        <v>-7.311763248572037</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.3691432850043369</v>
@@ -649,7 +649,7 @@
         <v>-0.3258613324509999</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.3237090855326505</v>
+        <v>-0.3237090855326508</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.51734011263218</v>
+        <v>-12.731558291894</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-18.010833788007</v>
+        <v>-18.27225018620136</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-11.66626050532394</v>
+        <v>-11.90712159355493</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-11.17550099432347</v>
+        <v>-11.10729396000163</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5203119449510828</v>
+        <v>-0.516032646294048</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5380201130226212</v>
+        <v>-0.5396277691358077</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4787921759353335</v>
+        <v>-0.4832956505523676</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4374035885000147</v>
+        <v>-0.4449381950461622</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-3.030595129430072</v>
+        <v>-3.299994260054417</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-8.551297848717187</v>
+        <v>-8.082065329025005</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-2.617423151947204</v>
+        <v>-2.365444864041276</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-3.341028017348533</v>
+        <v>-3.26741851402136</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.1593479099978352</v>
+        <v>-0.1714103693700917</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.2956468557606195</v>
+        <v>-0.2820392065662699</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.125059581275613</v>
+        <v>-0.1242342888512091</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.16808269716912</v>
+        <v>-0.1681947467630199</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-3.050930098578694</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-2.634592380073016</v>
+        <v>-2.63459238007302</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.4144100517456767</v>
@@ -749,7 +749,7 @@
         <v>-0.1901026850025153</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1779775421722845</v>
+        <v>-0.1779775421722847</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-12.52021672677612</v>
+        <v>-12.51421404763324</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-10.90761307722119</v>
+        <v>-10.5043519468385</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-7.402702349462781</v>
+        <v>-6.865918189872035</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.456398055397969</v>
+        <v>-5.57678627215654</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5445637856011741</v>
+        <v>-0.5532938220024034</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3888459105299097</v>
+        <v>-0.3709020015218769</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3963801281278931</v>
+        <v>-0.3745647712221606</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3218000754786433</v>
+        <v>-0.330319693494703</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-4.568714064702529</v>
+        <v>-5.110567797169423</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-2.771424204299346</v>
+        <v>-2.186664915476208</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2337104372892603</v>
+        <v>0.3353613926059315</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02533657670467911</v>
+        <v>0.3631748409692119</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2532530266482867</v>
+        <v>-0.2703501318893848</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1132144567594278</v>
+        <v>-0.08741265188105453</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02654274202968989</v>
+        <v>0.0284766598249065</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.006092729221752262</v>
+        <v>0.02576692597631099</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.311904475577773</v>
+        <v>-6.98283846726742</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-13.73786327601276</v>
+        <v>-13.3308965036035</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.86260017294095</v>
+        <v>-11.93481060810512</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.240697361977651</v>
+        <v>-6.474290174132516</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3270790642300685</v>
+        <v>-0.3142974654167549</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4991808055166082</v>
+        <v>-0.4896541813124394</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5438860803069645</v>
+        <v>-0.5614015117751193</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4493814414632464</v>
+        <v>-0.4554451606807013</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.01245243799894</v>
+        <v>2.512739869263965</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-4.672033086916338</v>
+        <v>-4.171088070875721</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.972796961191511</v>
+        <v>-3.401063816675203</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4006364382443305</v>
+        <v>-0.1637962610446558</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1185795926914218</v>
+        <v>0.1433492440005437</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.206897504150005</v>
+        <v>-0.1955048074047318</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.1726650239566056</v>
+        <v>-0.2023449726831034</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.04136059892789945</v>
+        <v>-0.004676234963937056</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-3.238977096142806</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-7.008209561724564</v>
+        <v>-7.008209561724563</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1136936950799151</v>
@@ -949,7 +949,7 @@
         <v>-0.1996197382552744</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.4025888782929031</v>
+        <v>-0.402588878292903</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.053848460499756</v>
+        <v>-6.166497804417062</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.717310760624985</v>
+        <v>-5.84303004545712</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-7.02300971458834</v>
+        <v>-6.915578469607247</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-10.12073026584433</v>
+        <v>-9.918627081668854</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3042408389554991</v>
+        <v>-0.3078091167810997</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2772722305573161</v>
+        <v>-0.2819382342396888</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3859040252158104</v>
+        <v>-0.3846905003793721</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5162825063755482</v>
+        <v>-0.507580339941416</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.609208230781675</v>
+        <v>1.414151649421182</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.805632197221132</v>
+        <v>1.978588207533765</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07874691691999008</v>
+        <v>0.1692364356351538</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-4.107439138581851</v>
+        <v>-3.895373793442205</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09887505452578406</v>
+        <v>0.09735277436233582</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1054754145107107</v>
+        <v>0.1238872879386967</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.005674903081090757</v>
+        <v>0.01349276780503092</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2640567196185056</v>
+        <v>-0.246843078376135</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-4.829771478872153</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-4.862232896229493</v>
+        <v>-4.862232896229497</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.2637653051612142</v>
@@ -1049,7 +1049,7 @@
         <v>-0.2704932072052303</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.2970672917131221</v>
+        <v>-0.2970672917131223</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.35326837853745</v>
+        <v>-7.596227424567554</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.309585799519031</v>
+        <v>-9.382953296226416</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.863528817310141</v>
+        <v>-6.857766082833278</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.400603722204432</v>
+        <v>-6.48798873034841</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3504454664246425</v>
+        <v>-0.3566994883300048</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3567122883228632</v>
+        <v>-0.3630117772216809</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3627856429593299</v>
+        <v>-0.3630029326408975</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3681336580497945</v>
+        <v>-0.3738002985967098</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-3.177283356707466</v>
+        <v>-3.153019508360243</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-4.95997770633521</v>
+        <v>-4.991500848034213</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.856841843215268</v>
+        <v>-3.030100739421723</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-3.201577048003196</v>
+        <v>-3.268301602448208</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1685823993322264</v>
+        <v>-0.1654728656848034</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.2089471661927923</v>
+        <v>-0.2106406126498899</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.1709889695383595</v>
+        <v>-0.1830488342306801</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.203882023991594</v>
+        <v>-0.2107608418155868</v>
       </c>
     </row>
     <row r="19">
